--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Kati Patang Lifestyle Ltd/Pruned_Excel/Semi_Final/Kati Patang Lifestyle Ltd_Semi_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Kati Patang Lifestyle Ltd/Pruned_Excel/Semi_Final/Kati Patang Lifestyle Ltd_Semi_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>Balance Sheet of Kati Patang Lifestyle(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,66 +62,6 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 04</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-  <si>
     <t>Cash Flow of Kati Patang Lifestyle(in Rs. Cr.)</t>
   </si>
   <si>
@@ -215,6 +158,9 @@
     <t>Quarterly Results of Kati Patang Lifestyle(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -269,139 +215,16 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Sep 13 Q2</t>
-  </si>
-  <si>
-    <t>Dec 13 Q3</t>
-  </si>
-  <si>
-    <t>Mar 14 Q4</t>
-  </si>
-  <si>
-    <t>Jun 14 Q1</t>
-  </si>
-  <si>
-    <t>Sep 14 Q2</t>
-  </si>
-  <si>
-    <t>Dec 14 Q3</t>
-  </si>
-  <si>
-    <t>Mar 15 Q4</t>
-  </si>
-  <si>
-    <t>Jun 15 Q1</t>
-  </si>
-  <si>
-    <t>Sep 15 Q2</t>
-  </si>
-  <si>
-    <t>Dec 15 Q3</t>
-  </si>
-  <si>
-    <t>Mar 16 Q4</t>
-  </si>
-  <si>
-    <t>Jun 16 Q1</t>
-  </si>
-  <si>
-    <t>Sep 16 Q2</t>
-  </si>
-  <si>
-    <t>Dec 16 Q3</t>
-  </si>
-  <si>
-    <t>Mar 17 Q4</t>
-  </si>
-  <si>
-    <t>Jun 17 Q1</t>
-  </si>
-  <si>
-    <t>Sep 17 Q2</t>
-  </si>
-  <si>
-    <t>Dec 17 Q3</t>
-  </si>
-  <si>
-    <t>Mar 18 Q4</t>
-  </si>
-  <si>
-    <t>Jun 18 Q1</t>
-  </si>
-  <si>
-    <t>Sep 18 Q2</t>
-  </si>
-  <si>
-    <t>Dec 18 Q3</t>
-  </si>
-  <si>
-    <t>Mar 19 Q4</t>
-  </si>
-  <si>
-    <t>Jun 19 Q1</t>
-  </si>
-  <si>
-    <t>Sep 19 Q2</t>
-  </si>
-  <si>
-    <t>Dec 19 Q3</t>
-  </si>
-  <si>
-    <t>Mar 20 Q4</t>
-  </si>
-  <si>
-    <t>Jun 20 Q1</t>
-  </si>
-  <si>
-    <t>Sep 20 Q2</t>
-  </si>
-  <si>
-    <t>Dec 20 Q3</t>
-  </si>
-  <si>
-    <t>Mar 21 Q4</t>
-  </si>
-  <si>
-    <t>Jun 21 Q1</t>
-  </si>
-  <si>
-    <t>Sep 21 Q2</t>
-  </si>
-  <si>
-    <t>Dec 21 Q3</t>
-  </si>
-  <si>
-    <t>Mar 22 Q4</t>
-  </si>
-  <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>Key Financial Ratios of Kati Patang Lifestyle(in Rs. Cr.)</t>
@@ -813,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,157 +682,169 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2004</v>
+      </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>7.55</v>
-      </c>
-      <c r="C2">
-        <v>-6.57</v>
       </c>
       <c r="D2">
         <v>-6.57</v>
       </c>
       <c r="E2">
+        <v>-6.57</v>
+      </c>
+      <c r="F2">
         <v>0.97</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.41</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.71</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6.79</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.39</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4.4</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4.44</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2.35</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6.79</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2006</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>7.55</v>
-      </c>
-      <c r="C3">
-        <v>-10.92</v>
       </c>
       <c r="D3">
         <v>-10.92</v>
       </c>
       <c r="E3">
+        <v>-10.92</v>
+      </c>
+      <c r="F3">
         <v>-3.37</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.36</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.86</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.28</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.84</v>
-      </c>
-      <c r="J3">
-        <v>1.17</v>
       </c>
       <c r="K3">
         <v>1.17</v>
       </c>
       <c r="L3">
+        <v>1.17</v>
+      </c>
+      <c r="M3">
         <v>2.11</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2007</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>7.55</v>
-      </c>
-      <c r="C4">
-        <v>-11.75</v>
       </c>
       <c r="D4">
         <v>-11.75</v>
       </c>
       <c r="E4">
+        <v>-11.75</v>
+      </c>
+      <c r="F4">
         <v>-4.2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.19</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.09</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.45</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-2.46</v>
-      </c>
-      <c r="J4">
-        <v>0.55</v>
       </c>
       <c r="K4">
         <v>0.55</v>
       </c>
       <c r="L4">
+        <v>0.55</v>
+      </c>
+      <c r="M4">
         <v>0.9</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.45</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2008</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>7.55</v>
-      </c>
-      <c r="C5">
-        <v>-12.26</v>
       </c>
       <c r="D5">
         <v>-12.26</v>
       </c>
       <c r="E5">
+        <v>-12.26</v>
+      </c>
+      <c r="F5">
         <v>-4.71</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.33</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.34</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.37</v>
-      </c>
-      <c r="I5">
-        <v>0.46</v>
       </c>
       <c r="J5">
         <v>0.46</v>
@@ -1018,39 +853,42 @@
         <v>0.46</v>
       </c>
       <c r="L5">
+        <v>0.46</v>
+      </c>
+      <c r="M5">
         <v>0.91</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.37</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2009</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>7.55</v>
-      </c>
-      <c r="C6">
-        <v>-12.81</v>
       </c>
       <c r="D6">
         <v>-12.81</v>
       </c>
       <c r="E6">
+        <v>-12.81</v>
+      </c>
+      <c r="F6">
         <v>-5.27</v>
-      </c>
-      <c r="F6">
-        <v>0.39</v>
       </c>
       <c r="G6">
         <v>0.39</v>
       </c>
       <c r="H6">
+        <v>0.39</v>
+      </c>
+      <c r="I6">
         <v>1.23</v>
-      </c>
-      <c r="I6">
-        <v>0.38</v>
       </c>
       <c r="J6">
         <v>0.38</v>
@@ -1059,39 +897,42 @@
         <v>0.38</v>
       </c>
       <c r="L6">
+        <v>0.38</v>
+      </c>
+      <c r="M6">
         <v>0.85</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.23</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2010</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>7.55</v>
-      </c>
-      <c r="C7">
-        <v>-13.19</v>
       </c>
       <c r="D7">
         <v>-13.19</v>
       </c>
       <c r="E7">
+        <v>-13.19</v>
+      </c>
+      <c r="F7">
         <v>-5.64</v>
-      </c>
-      <c r="F7">
-        <v>0.35</v>
       </c>
       <c r="G7">
         <v>0.35</v>
       </c>
       <c r="H7">
+        <v>0.35</v>
+      </c>
+      <c r="I7">
         <v>1.17</v>
-      </c>
-      <c r="I7">
-        <v>0.31</v>
       </c>
       <c r="J7">
         <v>0.31</v>
@@ -1100,583 +941,628 @@
         <v>0.31</v>
       </c>
       <c r="L7">
+        <v>0.31</v>
+      </c>
+      <c r="M7">
         <v>0.86</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.17</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2011</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>7.55</v>
-      </c>
-      <c r="C8">
-        <v>-13.16</v>
       </c>
       <c r="D8">
         <v>-13.16</v>
       </c>
       <c r="E8">
+        <v>-13.16</v>
+      </c>
+      <c r="F8">
         <v>-5.61</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.54</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.75</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.62</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.27</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.34</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1.48</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.14</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.62</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2012</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>7.55</v>
-      </c>
-      <c r="C9">
-        <v>-14.31</v>
       </c>
       <c r="D9">
         <v>-14.31</v>
       </c>
       <c r="E9">
+        <v>-14.31</v>
+      </c>
+      <c r="F9">
         <v>-6.76</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.65</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.38</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4.05</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.42</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.25</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2.49</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.56</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4.05</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2013</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>10.3</v>
-      </c>
-      <c r="C10">
-        <v>-17.44</v>
       </c>
       <c r="D10">
         <v>-17.44</v>
       </c>
       <c r="E10">
+        <v>-17.44</v>
+      </c>
+      <c r="F10">
         <v>-7.14</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.03</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.03</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4.99</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.42</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3.07</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3.36</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1.63</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4.99</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2014</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>10.3</v>
-      </c>
-      <c r="C11">
-        <v>-14.41</v>
       </c>
       <c r="D11">
         <v>-14.41</v>
       </c>
       <c r="E11">
+        <v>-14.41</v>
+      </c>
+      <c r="F11">
         <v>-4.11</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.49</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>9.73</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.18</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.63</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>9.31</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.43</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9.73</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2015</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>10.3</v>
-      </c>
-      <c r="C12">
-        <v>-14.81</v>
       </c>
       <c r="D12">
         <v>-14.81</v>
       </c>
       <c r="E12">
+        <v>-14.81</v>
+      </c>
+      <c r="F12">
         <v>-4.51</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.41</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.62</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>9.640000000000001</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.12</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.57</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>8.970000000000001</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.67</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>9.640000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2016</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>10.3</v>
-      </c>
-      <c r="C13">
-        <v>-15.3</v>
       </c>
       <c r="D13">
         <v>-15.3</v>
       </c>
       <c r="E13">
+        <v>-15.3</v>
+      </c>
+      <c r="F13">
         <v>-5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.55</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.8</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>9.56</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.11</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>8.77</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.79</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>9.56</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2017</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>10.3</v>
-      </c>
-      <c r="C14">
-        <v>-16.07</v>
       </c>
       <c r="D14">
         <v>-16.07</v>
       </c>
       <c r="E14">
+        <v>-16.07</v>
+      </c>
+      <c r="F14">
         <v>-5.78</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.3</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.35</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9.06</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.52</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>8.49</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.57</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>9.06</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>26</v>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>2018</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>10.3</v>
-      </c>
-      <c r="C15">
-        <v>-16.54</v>
       </c>
       <c r="D15">
         <v>-16.54</v>
       </c>
       <c r="E15">
+        <v>-16.54</v>
+      </c>
+      <c r="F15">
         <v>-6.24</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.33</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.88</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>10.99</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.05</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.5</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>9.789999999999999</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>10.99</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>27</v>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>2019</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>10.3</v>
-      </c>
-      <c r="C16">
-        <v>-17.74</v>
       </c>
       <c r="D16">
         <v>-17.74</v>
       </c>
       <c r="E16">
+        <v>-17.74</v>
+      </c>
+      <c r="F16">
         <v>-7.44</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.39</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.83</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10.97</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.1</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.55</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>9.869999999999999</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.1</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>10.97</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>28</v>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>2020</v>
       </c>
       <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>10.3</v>
-      </c>
-      <c r="C17">
-        <v>-18.36</v>
       </c>
       <c r="D17">
         <v>-18.36</v>
       </c>
       <c r="E17">
+        <v>-18.36</v>
+      </c>
+      <c r="F17">
         <v>-8.06</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.72</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.01</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>11.59</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.1</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.55</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>10.21</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.38</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>11.59</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>29</v>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>2021</v>
       </c>
       <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>10.3</v>
-      </c>
-      <c r="C18">
-        <v>-18.92</v>
       </c>
       <c r="D18">
         <v>-18.92</v>
       </c>
       <c r="E18">
+        <v>-18.92</v>
+      </c>
+      <c r="F18">
         <v>-8.630000000000001</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.75</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.18</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>11.78</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.1</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>10.28</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.5</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>11.78</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>30</v>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>2022</v>
       </c>
       <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>10.3</v>
-      </c>
-      <c r="C19">
-        <v>-19.44</v>
       </c>
       <c r="D19">
         <v>-19.44</v>
       </c>
       <c r="E19">
+        <v>-19.44</v>
+      </c>
+      <c r="F19">
         <v>-9.140000000000001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.97</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1.63</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>12.46</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.15</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.05</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>10.32</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2.14</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>12.46</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>31</v>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>2023</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>10.3</v>
-      </c>
-      <c r="C20">
-        <v>-20.37</v>
       </c>
       <c r="D20">
         <v>-20.37</v>
       </c>
       <c r="E20">
+        <v>-20.37</v>
+      </c>
+      <c r="F20">
         <v>-10.07</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.06</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1.03</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>12.1</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.15</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.05</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>10.33</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1.77</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>12.1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>32</v>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>2024</v>
       </c>
       <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>10.3</v>
-      </c>
-      <c r="C21">
-        <v>-21.5</v>
       </c>
       <c r="D21">
         <v>-21.5</v>
       </c>
       <c r="E21">
+        <v>-21.5</v>
+      </c>
+      <c r="F21">
         <v>-11.2</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.73</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>11.48</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.15</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1.05</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>10.33</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1.15</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>11.48</v>
       </c>
     </row>
@@ -1687,618 +1573,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2004</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>-1.9</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.11</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.08</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.18</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>-0.01</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.08</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2006</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>-2.14</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.39</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.09</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.41</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.16</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2007</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>-0.82</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.88</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.02</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.99</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.08</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.09</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2008</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>-0.5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.41</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.03</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.41</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>-0.03</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.18</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2009</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>-0.55</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.34</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.01</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.36</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.01</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.14</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2010</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>-0.37</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.36</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.348</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.36</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.006</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.16</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2011</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>0.03</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-1.1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.03</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.06</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.15</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2012</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>-1.15</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-1.01</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-1.03</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.96</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>-0.08</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.21</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.14</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2013</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>-3.13</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-2.65</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.86</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3.45</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>-0.05</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.14</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>2014</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>3.03</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-1.85</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.85</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.79</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.09</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.06</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>2015</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>-0.52</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.51</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.01</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.47</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>-0.04</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.15</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>2016</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>-0.44</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.41</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.17</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.2</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>-0.03</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.11</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>2017</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>-0.77</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.64</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.21</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.54</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0.11</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.08</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.19</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>2018</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>-0.48</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.52</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-1.42</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.9</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>-0.05</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.19</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.14</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>2019</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>-1.24</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-1.13</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.14</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.25</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>-0.02</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.14</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.12</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>2020</v>
       </c>
       <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>-0.61</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.4</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.84</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.18</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.12</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>2021</v>
       </c>
       <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.31</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.46</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.79</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0.03</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.05</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>2022</v>
       </c>
       <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>-0.52</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.03</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.72</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0.13</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.08</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>2023</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>-0.92</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.85</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.01</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.15</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0.29</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.21</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>2024</v>
       </c>
       <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>-1.11</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.99</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.02</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.76</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>-0.24</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.25</v>
       </c>
     </row>
@@ -2309,86 +2258,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2004</v>
       </c>
       <c r="B2">
-        <v>4.84</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>4.84</v>
@@ -2397,37 +2349,37 @@
         <v>4.84</v>
       </c>
       <c r="E2">
+        <v>4.84</v>
+      </c>
+      <c r="F2">
         <v>0.01</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.85</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.17</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.35</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.03</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.26</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.47</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>6.75</v>
-      </c>
-      <c r="M2">
-        <v>-1.9</v>
       </c>
       <c r="N2">
         <v>-1.9</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2436,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-1.9</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>-1.9</v>
@@ -2445,18 +2397,21 @@
         <v>-1.9</v>
       </c>
       <c r="U2">
-        <v>-2.52</v>
+        <v>-1.9</v>
       </c>
       <c r="V2">
         <v>-2.52</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>14</v>
+      <c r="W2">
+        <v>-2.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2006</v>
       </c>
       <c r="B3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3.4</v>
@@ -2465,66 +2420,69 @@
         <v>3.4</v>
       </c>
       <c r="E3">
-        <v>0.08599999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>3.4</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.09</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.35</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.01</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.71</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.28</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5.54</v>
-      </c>
-      <c r="M3">
-        <v>-2.14</v>
       </c>
       <c r="N3">
         <v>-2.14</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-2.14</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.01</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-2.15</v>
-      </c>
-      <c r="S3">
-        <v>-2.14</v>
       </c>
       <c r="T3">
         <v>-2.14</v>
       </c>
       <c r="U3">
-        <v>-2.83</v>
+        <v>-2.14</v>
       </c>
       <c r="V3">
         <v>-2.83</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>15</v>
+      <c r="W3">
+        <v>-2.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2007</v>
       </c>
       <c r="B4">
-        <v>5.13</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>5.13</v>
@@ -2533,46 +2491,46 @@
         <v>5.13</v>
       </c>
       <c r="E4">
-        <v>0.08599999999999999</v>
+        <v>5.13</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>5.13</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.23</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0.64</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.24</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5.94</v>
-      </c>
-      <c r="M4">
-        <v>-0.82</v>
       </c>
       <c r="N4">
         <v>-0.82</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0.82</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>0.01</v>
-      </c>
-      <c r="R4">
-        <v>-0.83</v>
       </c>
       <c r="S4">
         <v>-0.83</v>
@@ -2581,18 +2539,21 @@
         <v>-0.83</v>
       </c>
       <c r="U4">
-        <v>-1.09</v>
+        <v>-0.83</v>
       </c>
       <c r="V4">
         <v>-1.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="W4">
+        <v>-1.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2008</v>
       </c>
       <c r="B5">
-        <v>1.06</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1.06</v>
@@ -2601,46 +2562,46 @@
         <v>1.06</v>
       </c>
       <c r="E5">
+        <v>1.06</v>
+      </c>
+      <c r="F5">
         <v>0.06</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.12</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.25</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0.13</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.53</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1.62</v>
-      </c>
-      <c r="M5">
-        <v>-0.5</v>
       </c>
       <c r="N5">
         <v>-0.5</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>0.01</v>
-      </c>
-      <c r="R5">
-        <v>-0.51</v>
       </c>
       <c r="S5">
         <v>-0.51</v>
@@ -2649,18 +2610,21 @@
         <v>-0.51</v>
       </c>
       <c r="U5">
-        <v>-0.68</v>
+        <v>-0.51</v>
       </c>
       <c r="V5">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>17</v>
+      <c r="W5">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2009</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -2669,46 +2633,46 @@
         <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.08599999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.51</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.13</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.39</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0.09</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.45</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1.06</v>
-      </c>
-      <c r="M6">
-        <v>-0.55</v>
       </c>
       <c r="N6">
         <v>-0.55</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0.55</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0.01</v>
-      </c>
-      <c r="R6">
-        <v>-0.5600000000000001</v>
       </c>
       <c r="S6">
         <v>-0.5600000000000001</v>
@@ -2717,18 +2681,21 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="U6">
-        <v>-0.74</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="V6">
         <v>-0.74</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>18</v>
+      <c r="W6">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2010</v>
       </c>
       <c r="B7">
-        <v>0.37</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0.37</v>
@@ -2737,37 +2704,37 @@
         <v>0.37</v>
       </c>
       <c r="E7">
+        <v>0.37</v>
+      </c>
+      <c r="F7">
         <v>0.03</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.39</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.31</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0.07000000000000001</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.32</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.77</v>
-      </c>
-      <c r="M7">
-        <v>-0.37</v>
       </c>
       <c r="N7">
         <v>-0.37</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2776,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>-0.37</v>
@@ -2785,57 +2752,60 @@
         <v>-0.37</v>
       </c>
       <c r="U7">
-        <v>-0.5</v>
+        <v>-0.37</v>
       </c>
       <c r="V7">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>19</v>
+      <c r="W7">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2011</v>
       </c>
       <c r="B8">
-        <v>1.26</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1.26</v>
       </c>
       <c r="D8">
+        <v>1.26</v>
+      </c>
+      <c r="E8">
         <v>1.28</v>
       </c>
-      <c r="E8">
-        <v>0.08599999999999999</v>
-      </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>1.28</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.33</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.14</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0.07000000000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.47</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.26</v>
-      </c>
-      <c r="M8">
-        <v>0.03</v>
       </c>
       <c r="N8">
         <v>0.03</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2844,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0.03</v>
@@ -2853,57 +2823,60 @@
         <v>0.03</v>
       </c>
       <c r="U8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="V8">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="W8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2012</v>
       </c>
       <c r="B9">
-        <v>4.31</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>4.31</v>
       </c>
       <c r="D9">
+        <v>4.31</v>
+      </c>
+      <c r="E9">
         <v>4.48</v>
       </c>
-      <c r="E9">
-        <v>0.08599999999999999</v>
-      </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>4.48</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.91</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.32</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.47</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5.63</v>
-      </c>
-      <c r="M9">
-        <v>-1.15</v>
       </c>
       <c r="N9">
         <v>-1.15</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-1.15</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2912,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>-1.15</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>-1.15</v>
@@ -2921,57 +2894,60 @@
         <v>-1.15</v>
       </c>
       <c r="U9">
-        <v>-1.53</v>
+        <v>-1.15</v>
       </c>
       <c r="V9">
         <v>-1.53</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>21</v>
+      <c r="W9">
+        <v>-1.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2013</v>
       </c>
       <c r="B10">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>2.84</v>
       </c>
       <c r="D10">
+        <v>2.84</v>
+      </c>
+      <c r="E10">
         <v>3.04</v>
       </c>
-      <c r="E10">
-        <v>0.08599999999999999</v>
-      </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>3.04</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.653</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.01</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.09</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2.06</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>6.17</v>
-      </c>
-      <c r="M10">
-        <v>-3.13</v>
       </c>
       <c r="N10">
         <v>-3.13</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-3.13</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2980,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>-3.13</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>-3.13</v>
@@ -2989,18 +2965,21 @@
         <v>-3.13</v>
       </c>
       <c r="U10">
-        <v>-3.04</v>
+        <v>-3.13</v>
       </c>
       <c r="V10">
         <v>-3.04</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>22</v>
+      <c r="W10">
+        <v>-3.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2014</v>
       </c>
       <c r="B11">
-        <v>0.85</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0.85</v>
@@ -3009,38 +2988,38 @@
         <v>0.85</v>
       </c>
       <c r="E11">
+        <v>0.85</v>
+      </c>
+      <c r="F11">
         <v>0.01</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.85</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.653</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.31</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.12</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.04</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.63</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2.1</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-1.24</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>3.47</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -3048,27 +3027,30 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>3.47</v>
       </c>
       <c r="T11">
+        <v>3.47</v>
+      </c>
+      <c r="U11">
         <v>3.03</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>3.37</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>2.94</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2015</v>
       </c>
       <c r="B12">
-        <v>1.06</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1.06</v>
@@ -3077,38 +3059,38 @@
         <v>1.06</v>
       </c>
       <c r="E12">
+        <v>1.06</v>
+      </c>
+      <c r="F12">
         <v>0.14</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.653</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.09</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.02</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.03</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.53</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1.67</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-0.47</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-0.52</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -3116,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>-0.52</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>-0.52</v>
@@ -3125,18 +3107,21 @@
         <v>-0.52</v>
       </c>
       <c r="U12">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="V12">
         <v>-0.51</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>24</v>
+      <c r="W12">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2016</v>
       </c>
       <c r="B13">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1.01</v>
@@ -3145,37 +3130,37 @@
         <v>1.01</v>
       </c>
       <c r="E13">
+        <v>1.01</v>
+      </c>
+      <c r="F13">
         <v>0.03</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.04</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.653</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.06</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.02</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.03</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.36</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1.48</v>
-      </c>
-      <c r="M13">
-        <v>-0.44</v>
       </c>
       <c r="N13">
         <v>-0.44</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-0.44</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3184,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>-0.44</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>-0.44</v>
@@ -3193,18 +3178,21 @@
         <v>-0.44</v>
       </c>
       <c r="U13">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="V13">
         <v>-0.43</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>25</v>
+      <c r="W13">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2017</v>
       </c>
       <c r="B14">
-        <v>1.11</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1.11</v>
@@ -3213,37 +3201,37 @@
         <v>1.11</v>
       </c>
       <c r="E14">
-        <v>0.08599999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>1.11</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.83</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.64</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.05</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.04</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.32</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.88</v>
-      </c>
-      <c r="M14">
-        <v>-0.77</v>
       </c>
       <c r="N14">
         <v>-0.77</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-0.77</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3252,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>-0.77</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>-0.77</v>
@@ -3261,18 +3249,21 @@
         <v>-0.77</v>
       </c>
       <c r="U14">
-        <v>-0.75</v>
+        <v>-0.77</v>
       </c>
       <c r="V14">
         <v>-0.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
-        <v>26</v>
+      <c r="W14">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2018</v>
       </c>
       <c r="B15">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>1.01</v>
@@ -3281,37 +3272,37 @@
         <v>1.01</v>
       </c>
       <c r="E15">
+        <v>1.01</v>
+      </c>
+      <c r="F15">
         <v>0.06</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.08</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.83</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.44</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>0.02</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.27</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.56</v>
-      </c>
-      <c r="M15">
-        <v>-0.48</v>
       </c>
       <c r="N15">
         <v>-0.48</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-0.48</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3320,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>-0.48</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>-0.48</v>
@@ -3329,18 +3320,21 @@
         <v>-0.48</v>
       </c>
       <c r="U15">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="V15">
         <v>-0.47</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" t="s">
-        <v>27</v>
+      <c r="W15">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>2019</v>
       </c>
       <c r="B16">
-        <v>1.06</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1.06</v>
@@ -3349,37 +3343,37 @@
         <v>1.06</v>
       </c>
       <c r="E16">
+        <v>1.06</v>
+      </c>
+      <c r="F16">
         <v>0.02</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.08</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.86</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.61</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>0.02</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.83</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2.32</v>
-      </c>
-      <c r="M16">
-        <v>-1.24</v>
       </c>
       <c r="N16">
         <v>-1.24</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>-1.24</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3388,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>-1.24</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>-1.24</v>
@@ -3397,18 +3391,21 @@
         <v>-1.24</v>
       </c>
       <c r="U16">
-        <v>-1.2</v>
+        <v>-1.24</v>
       </c>
       <c r="V16">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>28</v>
+      <c r="W16">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>2020</v>
       </c>
       <c r="B17">
-        <v>0.91</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0.91</v>
@@ -3417,37 +3414,37 @@
         <v>0.91</v>
       </c>
       <c r="E17">
+        <v>0.91</v>
+      </c>
+      <c r="F17">
         <v>0.34</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.25</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.83</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.51</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.06</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.21</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.24</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.85</v>
-      </c>
-      <c r="M17">
-        <v>-0.61</v>
       </c>
       <c r="N17">
         <v>-0.61</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3456,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>-0.61</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>-0.61</v>
@@ -3465,18 +3462,21 @@
         <v>-0.61</v>
       </c>
       <c r="U17">
-        <v>-0.59</v>
+        <v>-0.61</v>
       </c>
       <c r="V17">
         <v>-0.59</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" t="s">
-        <v>29</v>
+      <c r="W17">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>2021</v>
       </c>
       <c r="B18">
-        <v>1.31</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>1.31</v>
@@ -3485,38 +3485,38 @@
         <v>1.31</v>
       </c>
       <c r="E18">
+        <v>1.31</v>
+      </c>
+      <c r="F18">
         <v>0.24</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.55</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.16</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.45</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.04</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.16</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.28</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2.1</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-0.55</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
         <v>0</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>-0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>-0.5600000000000001</v>
@@ -3533,18 +3533,21 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="U18">
-        <v>-0.54</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="V18">
         <v>-0.54</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>30</v>
+      <c r="W18">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>2022</v>
       </c>
       <c r="B19">
-        <v>1.19</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1.19</v>
@@ -3553,37 +3556,37 @@
         <v>1.19</v>
       </c>
       <c r="E19">
-        <v>0.08599999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>1.2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1.02</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.4</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>0.02</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.28</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1.71</v>
-      </c>
-      <c r="M19">
-        <v>-0.52</v>
       </c>
       <c r="N19">
         <v>-0.52</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3592,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>-0.52</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>-0.52</v>
@@ -3601,18 +3604,21 @@
         <v>-0.52</v>
       </c>
       <c r="U19">
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
       <c r="V19">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
-        <v>31</v>
+      <c r="W19">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>2023</v>
       </c>
       <c r="B20">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>1.2</v>
@@ -3621,37 +3627,37 @@
         <v>1.2</v>
       </c>
       <c r="E20">
-        <v>0.08599999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>1.2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.88</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.49</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>0.03</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.72</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2.12</v>
-      </c>
-      <c r="M20">
-        <v>-0.92</v>
       </c>
       <c r="N20">
         <v>-0.92</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>-0.92</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3660,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>-0.92</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>-0.92</v>
@@ -3669,18 +3675,21 @@
         <v>-0.92</v>
       </c>
       <c r="U20">
-        <v>-0.89</v>
+        <v>-0.92</v>
       </c>
       <c r="V20">
         <v>-0.89</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" t="s">
-        <v>32</v>
+      <c r="W20">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>2024</v>
       </c>
       <c r="B21">
-        <v>1.39</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>1.39</v>
@@ -3689,37 +3698,37 @@
         <v>1.39</v>
       </c>
       <c r="E21">
+        <v>1.39</v>
+      </c>
+      <c r="F21">
         <v>0.01</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.39</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.14</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.54</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>0.02</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.82</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2.51</v>
-      </c>
-      <c r="M21">
-        <v>-1.11</v>
       </c>
       <c r="N21">
         <v>-1.11</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>-1.11</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3728,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>-1.11</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>-1.11</v>
@@ -3737,9 +3746,12 @@
         <v>-1.11</v>
       </c>
       <c r="U21">
+        <v>-1.11</v>
+      </c>
+      <c r="V21">
         <v>-1.08</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-1.08</v>
       </c>
     </row>
@@ -3750,107 +3762,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2">
+      <c r="D2">
         <v>1.16</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>1.24</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0.66</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.03</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.36</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-0.54</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.11</v>
-      </c>
-      <c r="I2">
-        <v>-0.43</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
       <c r="K2">
         <v>-0.43</v>
@@ -3868,16 +3886,16 @@
         <v>-0.43</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>-0.43</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
+        <v>-0.43</v>
+      </c>
+      <c r="S2">
         <v>10.3</v>
-      </c>
-      <c r="R2">
-        <v>-0.42</v>
-      </c>
-      <c r="S2">
-        <v>-0.42</v>
       </c>
       <c r="T2">
         <v>-0.42</v>
@@ -3885,31 +3903,37 @@
       <c r="U2">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>84</v>
+      <c r="V2">
+        <v>-0.42</v>
+      </c>
+      <c r="W2">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2013</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
         <v>1.03</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1.1</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.74</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.02</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.47</v>
-      </c>
-      <c r="G3">
-        <v>-0.74</v>
-      </c>
-      <c r="H3">
-        <v>0.01</v>
       </c>
       <c r="I3">
         <v>-0.74</v>
@@ -3933,16 +3957,16 @@
         <v>-0.74</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>-0.74</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>-0.74</v>
+      </c>
+      <c r="S3">
         <v>10.3</v>
-      </c>
-      <c r="R3">
-        <v>-0.72</v>
-      </c>
-      <c r="S3">
-        <v>-0.72</v>
       </c>
       <c r="T3">
         <v>-0.72</v>
@@ -3950,43 +3974,49 @@
       <c r="U3">
         <v>-0.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>85</v>
+      <c r="V3">
+        <v>-0.72</v>
+      </c>
+      <c r="W3">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2014</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
         <v>0.73</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>0.74</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.4</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.01</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.52</v>
-      </c>
-      <c r="G4">
-        <v>-0.19</v>
-      </c>
-      <c r="H4">
-        <v>0.082</v>
       </c>
       <c r="I4">
         <v>-0.19</v>
       </c>
       <c r="J4">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>-0.19</v>
       </c>
       <c r="L4">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>-0.19</v>
@@ -3998,16 +4028,16 @@
         <v>-0.19</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>-0.19</v>
-      </c>
-      <c r="Q4">
-        <v>10.3</v>
       </c>
       <c r="R4">
         <v>-0.19</v>
       </c>
       <c r="S4">
-        <v>-0.19</v>
+        <v>10.3</v>
       </c>
       <c r="T4">
         <v>-0.19</v>
@@ -4015,31 +4045,37 @@
       <c r="U4">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>86</v>
+      <c r="V4">
+        <v>-0.19</v>
+      </c>
+      <c r="W4">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
         <v>0.27</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>0.27</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.23</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.01</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.15</v>
-      </c>
-      <c r="G5">
-        <v>-0.13</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
       </c>
       <c r="I5">
         <v>-0.13</v>
@@ -4063,16 +4099,16 @@
         <v>-0.13</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>-0.13</v>
-      </c>
-      <c r="Q5">
-        <v>10.3</v>
       </c>
       <c r="R5">
         <v>-0.13</v>
       </c>
       <c r="S5">
-        <v>-0.13</v>
+        <v>10.3</v>
       </c>
       <c r="T5">
         <v>-0.13</v>
@@ -4080,31 +4116,37 @@
       <c r="U5">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>87</v>
+      <c r="V5">
+        <v>-0.13</v>
+      </c>
+      <c r="W5">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2014</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
         <v>0.27</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>0.27</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.28</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.01</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="G6">
-        <v>-0.09</v>
-      </c>
-      <c r="H6">
-        <v>0.45</v>
       </c>
       <c r="I6">
         <v>-0.09</v>
@@ -4128,16 +4170,16 @@
         <v>-0.09</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>-0.09</v>
-      </c>
-      <c r="Q6">
-        <v>10.3</v>
       </c>
       <c r="R6">
         <v>-0.09</v>
       </c>
       <c r="S6">
-        <v>-0.09</v>
+        <v>10.3</v>
       </c>
       <c r="T6">
         <v>-0.09</v>
@@ -4145,31 +4187,37 @@
       <c r="U6">
         <v>-0.09</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>88</v>
+      <c r="V6">
+        <v>-0.09</v>
+      </c>
+      <c r="W6">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2014</v>
       </c>
       <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
         <v>0.26</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>0.26</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0.27</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.01</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.13</v>
-      </c>
-      <c r="G7">
-        <v>-0.16</v>
-      </c>
-      <c r="H7">
-        <v>0.01</v>
       </c>
       <c r="I7">
         <v>-0.16</v>
@@ -4193,16 +4241,16 @@
         <v>-0.16</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>-0.16</v>
-      </c>
-      <c r="Q7">
-        <v>10.3</v>
       </c>
       <c r="R7">
         <v>-0.16</v>
       </c>
       <c r="S7">
-        <v>-0.16</v>
+        <v>10.3</v>
       </c>
       <c r="T7">
         <v>-0.16</v>
@@ -4210,64 +4258,70 @@
       <c r="U7">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>89</v>
+      <c r="V7">
+        <v>-0.16</v>
+      </c>
+      <c r="W7">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2015</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
         <v>0.26</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>0.4</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.3</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.01</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.14</v>
-      </c>
-      <c r="G8">
-        <v>-0.06</v>
-      </c>
-      <c r="H8">
-        <v>0.082</v>
       </c>
       <c r="I8">
         <v>-0.06</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-0.06</v>
+      </c>
+      <c r="L8">
         <v>0.02</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>-0.08</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>-0.05</v>
-      </c>
-      <c r="M8">
-        <v>-0.13</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
       </c>
       <c r="O8">
         <v>-0.13</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>-0.13</v>
-      </c>
-      <c r="Q8">
-        <v>10.3</v>
       </c>
       <c r="R8">
         <v>-0.13</v>
       </c>
       <c r="S8">
-        <v>-0.13</v>
+        <v>10.3</v>
       </c>
       <c r="T8">
         <v>-0.13</v>
@@ -4275,40 +4329,46 @@
       <c r="U8">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>90</v>
+      <c r="V8">
+        <v>-0.13</v>
+      </c>
+      <c r="W8">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2015</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
         <v>0.24</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>0.24</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.25</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.01</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>-0.1</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>-0.09</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>-0.1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4323,16 +4383,16 @@
         <v>-0.1</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>-0.1</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
+        <v>-0.1</v>
+      </c>
+      <c r="S9">
         <v>10.3</v>
-      </c>
-      <c r="R9">
-        <v>-0.09</v>
-      </c>
-      <c r="S9">
-        <v>-0.09</v>
       </c>
       <c r="T9">
         <v>-0.09</v>
@@ -4340,31 +4400,37 @@
       <c r="U9">
         <v>-0.09</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>91</v>
+      <c r="V9">
+        <v>-0.09</v>
+      </c>
+      <c r="W9">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2015</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
         <v>0.23</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>0.23</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.26</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.01</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.06</v>
-      </c>
-      <c r="G10">
-        <v>-0.1</v>
-      </c>
-      <c r="H10">
-        <v>0.45</v>
       </c>
       <c r="I10">
         <v>-0.1</v>
@@ -4388,16 +4454,16 @@
         <v>-0.1</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>-0.1</v>
-      </c>
-      <c r="Q10">
-        <v>10.3</v>
       </c>
       <c r="R10">
         <v>-0.1</v>
       </c>
       <c r="S10">
-        <v>-0.1</v>
+        <v>10.3</v>
       </c>
       <c r="T10">
         <v>-0.1</v>
@@ -4405,31 +4471,37 @@
       <c r="U10">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>92</v>
+      <c r="V10">
+        <v>-0.1</v>
+      </c>
+      <c r="W10">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2015</v>
       </c>
       <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
         <v>0.26</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>0.26</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.23</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.01</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.08</v>
-      </c>
-      <c r="G11">
-        <v>-0.06</v>
-      </c>
-      <c r="H11">
-        <v>0.01</v>
       </c>
       <c r="I11">
         <v>-0.06</v>
@@ -4453,16 +4525,16 @@
         <v>-0.06</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>-0.06</v>
-      </c>
-      <c r="Q11">
-        <v>10.3</v>
       </c>
       <c r="R11">
         <v>-0.06</v>
       </c>
       <c r="S11">
-        <v>-0.06</v>
+        <v>10.3</v>
       </c>
       <c r="T11">
         <v>-0.06</v>
@@ -4470,43 +4542,49 @@
       <c r="U11">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>93</v>
+      <c r="V11">
+        <v>-0.06</v>
+      </c>
+      <c r="W11">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2016</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
         <v>0.28</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>0.28</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>0.33</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.01</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.13</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>-0.19</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.03</v>
-      </c>
-      <c r="I12">
-        <v>-0.17</v>
-      </c>
-      <c r="J12">
-        <v>0.01</v>
       </c>
       <c r="K12">
         <v>-0.17</v>
       </c>
       <c r="L12">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M12">
         <v>-0.17</v>
@@ -4518,16 +4596,16 @@
         <v>-0.17</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>-0.17</v>
-      </c>
-      <c r="Q12">
-        <v>10.3</v>
       </c>
       <c r="R12">
         <v>-0.17</v>
       </c>
       <c r="S12">
-        <v>-0.17</v>
+        <v>10.3</v>
       </c>
       <c r="T12">
         <v>-0.17</v>
@@ -4535,31 +4613,37 @@
       <c r="U12">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>94</v>
+      <c r="V12">
+        <v>-0.17</v>
+      </c>
+      <c r="W12">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2016</v>
       </c>
       <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
         <v>0.09</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>0.09</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>0.31</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.01</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.16</v>
-      </c>
-      <c r="G13">
-        <v>-0.4</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
       </c>
       <c r="I13">
         <v>-0.4</v>
@@ -4583,16 +4667,16 @@
         <v>-0.4</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>-0.4</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
+        <v>-0.4</v>
+      </c>
+      <c r="S13">
         <v>10.3</v>
-      </c>
-      <c r="R13">
-        <v>-0.39</v>
-      </c>
-      <c r="S13">
-        <v>-0.39</v>
       </c>
       <c r="T13">
         <v>-0.39</v>
@@ -4600,31 +4684,37 @@
       <c r="U13">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>95</v>
+      <c r="V13">
+        <v>-0.39</v>
+      </c>
+      <c r="W13">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2016</v>
       </c>
       <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>0.13</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.01</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.11</v>
-      </c>
-      <c r="G14">
-        <v>-0.2</v>
-      </c>
-      <c r="H14">
-        <v>0.45</v>
       </c>
       <c r="I14">
         <v>-0.2</v>
@@ -4648,16 +4738,16 @@
         <v>-0.2</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>-0.2</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
+        <v>-0.2</v>
+      </c>
+      <c r="S14">
         <v>10.3</v>
-      </c>
-      <c r="R14">
-        <v>-0.19</v>
-      </c>
-      <c r="S14">
-        <v>-0.19</v>
       </c>
       <c r="T14">
         <v>-0.19</v>
@@ -4665,34 +4755,40 @@
       <c r="U14">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>96</v>
+      <c r="V14">
+        <v>-0.19</v>
+      </c>
+      <c r="W14">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2016</v>
       </c>
       <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
         <v>0.03</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>0.03</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>0.11</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.01</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>-0.16</v>
-      </c>
-      <c r="H15">
-        <v>0.01</v>
-      </c>
-      <c r="I15">
-        <v>-0.15</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4713,16 +4809,16 @@
         <v>-0.15</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>-0.15</v>
-      </c>
-      <c r="Q15">
-        <v>10.3</v>
       </c>
       <c r="R15">
         <v>-0.15</v>
       </c>
       <c r="S15">
-        <v>-0.15</v>
+        <v>10.3</v>
       </c>
       <c r="T15">
         <v>-0.15</v>
@@ -4730,43 +4826,49 @@
       <c r="U15">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>97</v>
+      <c r="V15">
+        <v>-0.15</v>
+      </c>
+      <c r="W15">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>2017</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
         <v>0.92</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>0.92</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>0.08</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.01</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.03</v>
-      </c>
-      <c r="G16">
-        <v>0.02</v>
-      </c>
-      <c r="H16">
-        <v>0.082</v>
       </c>
       <c r="I16">
         <v>0.02</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.02</v>
+      </c>
+      <c r="L16">
         <v>0.04</v>
-      </c>
-      <c r="K16">
-        <v>-0.02</v>
-      </c>
-      <c r="L16">
-        <v>-0.03</v>
       </c>
       <c r="M16">
         <v>-0.02</v>
@@ -4778,16 +4880,16 @@
         <v>-0.02</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>-0.02</v>
-      </c>
-      <c r="Q16">
-        <v>10.3</v>
       </c>
       <c r="R16">
         <v>-0.02</v>
       </c>
       <c r="S16">
-        <v>-0.02</v>
+        <v>10.3</v>
       </c>
       <c r="T16">
         <v>-0.02</v>
@@ -4795,31 +4897,37 @@
       <c r="U16">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" t="s">
-        <v>98</v>
+      <c r="V16">
+        <v>-0.02</v>
+      </c>
+      <c r="W16">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>2017</v>
       </c>
       <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17">
         <v>0.21</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>0.21</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>0.09</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.01</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.06</v>
-      </c>
-      <c r="G17">
-        <v>-0.1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
       </c>
       <c r="I17">
         <v>-0.1</v>
@@ -4843,16 +4951,16 @@
         <v>-0.1</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>-0.1</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
+        <v>-0.1</v>
+      </c>
+      <c r="S17">
         <v>10.3</v>
-      </c>
-      <c r="R17">
-        <v>-0.09</v>
-      </c>
-      <c r="S17">
-        <v>-0.09</v>
       </c>
       <c r="T17">
         <v>-0.09</v>
@@ -4860,31 +4968,37 @@
       <c r="U17">
         <v>-0.09</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" t="s">
-        <v>99</v>
+      <c r="V17">
+        <v>-0.09</v>
+      </c>
+      <c r="W17">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>2017</v>
       </c>
       <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18">
         <v>0.06</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>0.06</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>0.1</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.01</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="G18">
-        <v>-0.12</v>
-      </c>
-      <c r="H18">
-        <v>0.45</v>
       </c>
       <c r="I18">
         <v>-0.12</v>
@@ -4908,16 +5022,16 @@
         <v>-0.12</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>-0.12</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
+        <v>-0.12</v>
+      </c>
+      <c r="S18">
         <v>10.3</v>
-      </c>
-      <c r="R18">
-        <v>-0.11</v>
-      </c>
-      <c r="S18">
-        <v>-0.11</v>
       </c>
       <c r="T18">
         <v>-0.11</v>
@@ -4925,37 +5039,43 @@
       <c r="U18">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" t="s">
-        <v>100</v>
+      <c r="V18">
+        <v>-0.11</v>
+      </c>
+      <c r="W18">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>2017</v>
       </c>
       <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19">
         <v>0.19</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>0.19</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>0.1</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0.01</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>0.09</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>-0.18</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>0.01</v>
-      </c>
-      <c r="I19">
-        <v>-0.17</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
       </c>
       <c r="K19">
         <v>-0.17</v>
@@ -4973,16 +5093,16 @@
         <v>-0.17</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>-0.17</v>
-      </c>
-      <c r="Q19">
-        <v>10.3</v>
       </c>
       <c r="R19">
         <v>-0.17</v>
       </c>
       <c r="S19">
-        <v>-0.17</v>
+        <v>10.3</v>
       </c>
       <c r="T19">
         <v>-0.17</v>
@@ -4990,43 +5110,49 @@
       <c r="U19">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" t="s">
-        <v>101</v>
+      <c r="V19">
+        <v>-0.17</v>
+      </c>
+      <c r="W19">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>2018</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
         <v>0.55</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>0.55</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>0.16</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>-0.01</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>0.11</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>-0.15</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>0.06</v>
-      </c>
-      <c r="I20">
-        <v>-0.08</v>
-      </c>
-      <c r="J20">
-        <v>0.034</v>
       </c>
       <c r="K20">
         <v>-0.08</v>
       </c>
       <c r="L20">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>-0.08</v>
@@ -5038,16 +5164,16 @@
         <v>-0.08</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>-0.08</v>
-      </c>
-      <c r="Q20">
-        <v>10.3</v>
       </c>
       <c r="R20">
         <v>-0.08</v>
       </c>
       <c r="S20">
-        <v>-0.08</v>
+        <v>10.3</v>
       </c>
       <c r="T20">
         <v>-0.08</v>
@@ -5055,31 +5181,37 @@
       <c r="U20">
         <v>-0.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" t="s">
-        <v>102</v>
+      <c r="V20">
+        <v>-0.08</v>
+      </c>
+      <c r="W20">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>2018</v>
       </c>
       <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
         <v>0.11</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>0.11</v>
-      </c>
-      <c r="D21">
-        <v>0.15</v>
-      </c>
-      <c r="E21">
-        <v>0.01</v>
       </c>
       <c r="F21">
         <v>0.15</v>
       </c>
       <c r="G21">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I21">
         <v>-0.3</v>
@@ -5103,16 +5235,16 @@
         <v>-0.3</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>-0.3</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
+        <v>-0.3</v>
+      </c>
+      <c r="S21">
         <v>10.3</v>
-      </c>
-      <c r="R21">
-        <v>-0.29</v>
-      </c>
-      <c r="S21">
-        <v>-0.29</v>
       </c>
       <c r="T21">
         <v>-0.29</v>
@@ -5120,31 +5252,37 @@
       <c r="U21">
         <v>-0.29</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" t="s">
-        <v>103</v>
+      <c r="V21">
+        <v>-0.29</v>
+      </c>
+      <c r="W21">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>2018</v>
       </c>
       <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22">
         <v>0.2</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>0.2</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>0.15</v>
       </c>
-      <c r="E22">
-        <v>0.013</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0.12</v>
-      </c>
-      <c r="G22">
-        <v>-0.24</v>
-      </c>
-      <c r="H22">
-        <v>0.45</v>
       </c>
       <c r="I22">
         <v>-0.24</v>
@@ -5168,16 +5306,16 @@
         <v>-0.24</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>-0.24</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
+        <v>-0.24</v>
+      </c>
+      <c r="S22">
         <v>10.3</v>
-      </c>
-      <c r="R22">
-        <v>-0.23</v>
-      </c>
-      <c r="S22">
-        <v>-0.23</v>
       </c>
       <c r="T22">
         <v>-0.23</v>
@@ -5185,31 +5323,37 @@
       <c r="U22">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" t="s">
-        <v>104</v>
+      <c r="V22">
+        <v>-0.23</v>
+      </c>
+      <c r="W22">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>2018</v>
       </c>
       <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23">
         <v>0.28</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>0.28</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>0.17</v>
       </c>
-      <c r="E23">
-        <v>0.012</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0.21</v>
-      </c>
-      <c r="G23">
-        <v>-0.33</v>
-      </c>
-      <c r="H23">
-        <v>0.01</v>
       </c>
       <c r="I23">
         <v>-0.33</v>
@@ -5233,16 +5377,16 @@
         <v>-0.33</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>-0.33</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
+        <v>-0.33</v>
+      </c>
+      <c r="S23">
         <v>10.3</v>
-      </c>
-      <c r="R23">
-        <v>-0.32</v>
-      </c>
-      <c r="S23">
-        <v>-0.32</v>
       </c>
       <c r="T23">
         <v>-0.32</v>
@@ -5250,43 +5394,49 @@
       <c r="U23">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" t="s">
-        <v>105</v>
+      <c r="V23">
+        <v>-0.32</v>
+      </c>
+      <c r="W23">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>2019</v>
       </c>
       <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24">
         <v>0.47</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>0.47</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>0.12</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0.02</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>0.34</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>-0.38</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>0.02</v>
-      </c>
-      <c r="I24">
-        <v>-0.35</v>
-      </c>
-      <c r="J24">
-        <v>0.034</v>
       </c>
       <c r="K24">
         <v>-0.35</v>
       </c>
       <c r="L24">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>-0.35</v>
@@ -5298,16 +5448,16 @@
         <v>-0.35</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>-0.35</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
+        <v>-0.35</v>
+      </c>
+      <c r="S24">
         <v>10.3</v>
-      </c>
-      <c r="R24">
-        <v>-0.34</v>
-      </c>
-      <c r="S24">
-        <v>-0.34</v>
       </c>
       <c r="T24">
         <v>-0.34</v>
@@ -5315,31 +5465,37 @@
       <c r="U24">
         <v>-0.34</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>106</v>
+      <c r="V24">
+        <v>-0.34</v>
+      </c>
+      <c r="W24">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>2019</v>
       </c>
       <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
         <v>0.11</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>0.11</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>0.12</v>
       </c>
-      <c r="E25">
-        <v>0.01</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0.15</v>
-      </c>
-      <c r="G25">
-        <v>-0.26</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
       </c>
       <c r="I25">
         <v>-0.26</v>
@@ -5363,16 +5519,16 @@
         <v>-0.26</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>-0.26</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
+        <v>-0.26</v>
+      </c>
+      <c r="S25">
         <v>10.3</v>
-      </c>
-      <c r="R25">
-        <v>-0.25</v>
-      </c>
-      <c r="S25">
-        <v>-0.25</v>
       </c>
       <c r="T25">
         <v>-0.25</v>
@@ -5380,31 +5536,37 @@
       <c r="U25">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>107</v>
+      <c r="V25">
+        <v>-0.25</v>
+      </c>
+      <c r="W25">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>2019</v>
       </c>
       <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
         <v>0.21</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>0.21</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>0.12</v>
       </c>
-      <c r="E26">
-        <v>0.013</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0.11</v>
-      </c>
-      <c r="G26">
-        <v>-0.14</v>
-      </c>
-      <c r="H26">
-        <v>0.45</v>
       </c>
       <c r="I26">
         <v>-0.14</v>
@@ -5428,16 +5590,16 @@
         <v>-0.14</v>
       </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>-0.14</v>
-      </c>
-      <c r="Q26">
-        <v>10.3</v>
       </c>
       <c r="R26">
         <v>-0.14</v>
       </c>
       <c r="S26">
-        <v>-0.14</v>
+        <v>10.3</v>
       </c>
       <c r="T26">
         <v>-0.14</v>
@@ -5445,31 +5607,37 @@
       <c r="U26">
         <v>-0.14</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" t="s">
-        <v>108</v>
+      <c r="V26">
+        <v>-0.14</v>
+      </c>
+      <c r="W26">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>2019</v>
       </c>
       <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27">
         <v>0.32</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>0.32</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>0.12</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>0.01</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>0.08</v>
-      </c>
-      <c r="G27">
-        <v>-0.27</v>
-      </c>
-      <c r="H27">
-        <v>0.01</v>
       </c>
       <c r="I27">
         <v>-0.27</v>
@@ -5493,16 +5661,16 @@
         <v>-0.27</v>
       </c>
       <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>-0.27</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
+        <v>-0.27</v>
+      </c>
+      <c r="S27">
         <v>10.3</v>
-      </c>
-      <c r="R27">
-        <v>-0.26</v>
-      </c>
-      <c r="S27">
-        <v>-0.26</v>
       </c>
       <c r="T27">
         <v>-0.26</v>
@@ -5510,43 +5678,49 @@
       <c r="U27">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" t="s">
-        <v>109</v>
+      <c r="V27">
+        <v>-0.26</v>
+      </c>
+      <c r="W27">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>2020</v>
       </c>
       <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
         <v>0.26</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>0.26</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>0.15</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>0.2</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>-0.1</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>-0.21</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>0.34</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>0.12</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.06</v>
-      </c>
-      <c r="K28">
-        <v>0.06</v>
-      </c>
-      <c r="L28">
-        <v>-0.03</v>
       </c>
       <c r="M28">
         <v>0.06</v>
@@ -5558,16 +5732,16 @@
         <v>0.06</v>
       </c>
       <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>0.06</v>
-      </c>
-      <c r="Q28">
-        <v>10.3</v>
       </c>
       <c r="R28">
         <v>0.06</v>
       </c>
       <c r="S28">
-        <v>0.06</v>
+        <v>10.3</v>
       </c>
       <c r="T28">
         <v>0.06</v>
@@ -5575,31 +5749,37 @@
       <c r="U28">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" t="s">
-        <v>110</v>
+      <c r="V28">
+        <v>0.06</v>
+      </c>
+      <c r="W28">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>2020</v>
       </c>
       <c r="B29">
-        <v>0.1</v>
-      </c>
-      <c r="C29">
-        <v>0.1</v>
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
       </c>
       <c r="D29">
         <v>0.1</v>
       </c>
       <c r="E29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F29">
         <v>0.1</v>
       </c>
       <c r="G29">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I29">
         <v>-0.18</v>
@@ -5608,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -5623,16 +5803,16 @@
         <v>-0.19</v>
       </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>-0.19</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
+        <v>-0.19</v>
+      </c>
+      <c r="S29">
         <v>10.3</v>
-      </c>
-      <c r="R29">
-        <v>-0.18</v>
-      </c>
-      <c r="S29">
-        <v>-0.18</v>
       </c>
       <c r="T29">
         <v>-0.18</v>
@@ -5640,31 +5820,37 @@
       <c r="U29">
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" t="s">
-        <v>111</v>
+      <c r="V29">
+        <v>-0.18</v>
+      </c>
+      <c r="W29">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>2020</v>
       </c>
       <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
         <v>0.21</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>0.21</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>0.09</v>
       </c>
-      <c r="E30">
-        <v>0.013</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0.08</v>
-      </c>
-      <c r="G30">
-        <v>-0.14</v>
-      </c>
-      <c r="H30">
-        <v>0.45</v>
       </c>
       <c r="I30">
         <v>-0.14</v>
@@ -5688,16 +5874,16 @@
         <v>-0.14</v>
       </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>-0.14</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
+        <v>-0.14</v>
+      </c>
+      <c r="S30">
         <v>10.3</v>
-      </c>
-      <c r="R30">
-        <v>-0.13</v>
-      </c>
-      <c r="S30">
-        <v>-0.13</v>
       </c>
       <c r="T30">
         <v>-0.13</v>
@@ -5705,31 +5891,37 @@
       <c r="U30">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" t="s">
-        <v>112</v>
+      <c r="V30">
+        <v>-0.13</v>
+      </c>
+      <c r="W30">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>2020</v>
       </c>
       <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
         <v>0.71</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>0.71</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>0.08</v>
       </c>
-      <c r="E31">
-        <v>0.012</v>
-      </c>
-      <c r="F31">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0.06</v>
-      </c>
-      <c r="G31">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="H31">
-        <v>0.01</v>
       </c>
       <c r="I31">
         <v>-0.07000000000000001</v>
@@ -5753,16 +5945,16 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>-0.07000000000000001</v>
-      </c>
-      <c r="Q31">
-        <v>10.3</v>
       </c>
       <c r="R31">
         <v>-0.07000000000000001</v>
       </c>
       <c r="S31">
-        <v>-0.07000000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="T31">
         <v>-0.07000000000000001</v>
@@ -5770,64 +5962,70 @@
       <c r="U31">
         <v>-0.07000000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" t="s">
-        <v>113</v>
+      <c r="V31">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="W31">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>2021</v>
       </c>
       <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
         <v>0.3</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>0.3</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>0.18</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>0.16</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>0.05</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>-0.35</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>0.03</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>-0.32</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>0.04</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>-0.36</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>-0.01</v>
-      </c>
-      <c r="M32">
-        <v>-0.37</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
       </c>
       <c r="O32">
         <v>-0.37</v>
       </c>
       <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>-0.37</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
+        <v>-0.37</v>
+      </c>
+      <c r="S32">
         <v>10.3</v>
-      </c>
-      <c r="R32">
-        <v>-0.36</v>
-      </c>
-      <c r="S32">
-        <v>-0.36</v>
       </c>
       <c r="T32">
         <v>-0.36</v>
@@ -5835,31 +6033,37 @@
       <c r="U32">
         <v>-0.36</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" t="s">
-        <v>114</v>
+      <c r="V32">
+        <v>-0.36</v>
+      </c>
+      <c r="W32">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>2021</v>
       </c>
       <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
         <v>0.24</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>0.24</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>0.09</v>
       </c>
-      <c r="E33">
-        <v>0.01</v>
-      </c>
-      <c r="F33">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0.06</v>
-      </c>
-      <c r="G33">
-        <v>-0.12</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
       </c>
       <c r="I33">
         <v>-0.12</v>
@@ -5883,16 +6087,16 @@
         <v>-0.12</v>
       </c>
       <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>-0.12</v>
-      </c>
-      <c r="Q33">
-        <v>10.3</v>
       </c>
       <c r="R33">
         <v>-0.12</v>
       </c>
       <c r="S33">
-        <v>-0.12</v>
+        <v>10.3</v>
       </c>
       <c r="T33">
         <v>-0.12</v>
@@ -5900,31 +6104,37 @@
       <c r="U33">
         <v>-0.12</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" t="s">
-        <v>115</v>
+      <c r="V33">
+        <v>-0.12</v>
+      </c>
+      <c r="W33">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>2021</v>
       </c>
       <c r="B34">
-        <v>0.1</v>
-      </c>
-      <c r="C34">
-        <v>0.1</v>
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
       </c>
       <c r="D34">
         <v>0.1</v>
       </c>
       <c r="E34">
-        <v>0.013</v>
+        <v>0.1</v>
       </c>
       <c r="F34">
+        <v>0.1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>0.03</v>
-      </c>
-      <c r="G34">
-        <v>-0.03</v>
-      </c>
-      <c r="H34">
-        <v>0.45</v>
       </c>
       <c r="I34">
         <v>-0.03</v>
@@ -5948,16 +6158,16 @@
         <v>-0.03</v>
       </c>
       <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>-0.03</v>
-      </c>
-      <c r="Q34">
-        <v>10.3</v>
       </c>
       <c r="R34">
         <v>-0.03</v>
       </c>
       <c r="S34">
-        <v>-0.03</v>
+        <v>10.3</v>
       </c>
       <c r="T34">
         <v>-0.03</v>
@@ -5965,31 +6175,37 @@
       <c r="U34">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" t="s">
-        <v>116</v>
+      <c r="V34">
+        <v>-0.03</v>
+      </c>
+      <c r="W34">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>2021</v>
       </c>
       <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35">
         <v>0.1</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>0.1</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>0.09</v>
       </c>
-      <c r="E35">
-        <v>0.012</v>
-      </c>
-      <c r="F35">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0.11</v>
-      </c>
-      <c r="G35">
-        <v>-0.25</v>
-      </c>
-      <c r="H35">
-        <v>0.01</v>
       </c>
       <c r="I35">
         <v>-0.25</v>
@@ -6013,16 +6229,16 @@
         <v>-0.25</v>
       </c>
       <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>-0.25</v>
-      </c>
-      <c r="Q35">
-        <v>10.3</v>
       </c>
       <c r="R35">
         <v>-0.25</v>
       </c>
       <c r="S35">
-        <v>-0.25</v>
+        <v>10.3</v>
       </c>
       <c r="T35">
         <v>-0.25</v>
@@ -6030,43 +6246,49 @@
       <c r="U35">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" t="s">
-        <v>117</v>
+      <c r="V35">
+        <v>-0.25</v>
+      </c>
+      <c r="W35">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>2022</v>
       </c>
       <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36">
         <v>0.75</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>0.75</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>0.12</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>0.02</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>-0.12</v>
       </c>
-      <c r="H36">
-        <v>0.082</v>
-      </c>
-      <c r="I36">
-        <v>-0.11</v>
-      </c>
       <c r="J36">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>-0.11</v>
       </c>
       <c r="L36">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>-0.11</v>
@@ -6078,16 +6300,16 @@
         <v>-0.11</v>
       </c>
       <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>-0.11</v>
-      </c>
-      <c r="Q36">
-        <v>10.3</v>
       </c>
       <c r="R36">
         <v>-0.11</v>
       </c>
       <c r="S36">
-        <v>-0.11</v>
+        <v>10.3</v>
       </c>
       <c r="T36">
         <v>-0.11</v>
@@ -6095,31 +6317,37 @@
       <c r="U36">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" t="s">
-        <v>118</v>
+      <c r="V36">
+        <v>-0.11</v>
+      </c>
+      <c r="W36">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>2022</v>
       </c>
       <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37">
         <v>0.05</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>0.05</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>0.11</v>
       </c>
-      <c r="E37">
-        <v>0.01</v>
-      </c>
-      <c r="F37">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>0.2</v>
-      </c>
-      <c r="G37">
-        <v>-0.26</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
       </c>
       <c r="I37">
         <v>-0.26</v>
@@ -6143,16 +6371,16 @@
         <v>-0.26</v>
       </c>
       <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>-0.26</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
+        <v>-0.26</v>
+      </c>
+      <c r="S37">
         <v>10.3</v>
-      </c>
-      <c r="R37">
-        <v>-0.25</v>
-      </c>
-      <c r="S37">
-        <v>-0.25</v>
       </c>
       <c r="T37">
         <v>-0.25</v>
@@ -6160,31 +6388,37 @@
       <c r="U37">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" t="s">
-        <v>119</v>
+      <c r="V37">
+        <v>-0.25</v>
+      </c>
+      <c r="W37">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>2022</v>
       </c>
       <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38">
         <v>0.1</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>0.1</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>0.11</v>
       </c>
-      <c r="E38">
-        <v>0.013</v>
-      </c>
-      <c r="F38">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0.16</v>
-      </c>
-      <c r="G38">
-        <v>-0.17</v>
-      </c>
-      <c r="H38">
-        <v>0.45</v>
       </c>
       <c r="I38">
         <v>-0.17</v>
@@ -6208,16 +6442,16 @@
         <v>-0.17</v>
       </c>
       <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>-0.17</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
+        <v>-0.17</v>
+      </c>
+      <c r="S38">
         <v>10.3</v>
-      </c>
-      <c r="R38">
-        <v>-0.16</v>
-      </c>
-      <c r="S38">
-        <v>-0.152</v>
       </c>
       <c r="T38">
         <v>-0.16</v>
@@ -6225,31 +6459,37 @@
       <c r="U38">
         <v>-0.152</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" t="s">
-        <v>120</v>
+      <c r="V38">
+        <v>-0.16</v>
+      </c>
+      <c r="W38">
+        <v>-0.152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>2022</v>
       </c>
       <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39">
         <v>0.17</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>0.17</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>0.13</v>
       </c>
-      <c r="E39">
-        <v>0.012</v>
-      </c>
-      <c r="F39">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>0.16</v>
-      </c>
-      <c r="G39">
-        <v>-0.24</v>
-      </c>
-      <c r="H39">
-        <v>0.01</v>
       </c>
       <c r="I39">
         <v>-0.24</v>
@@ -6273,16 +6513,16 @@
         <v>-0.24</v>
       </c>
       <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>-0.24</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
+        <v>-0.24</v>
+      </c>
+      <c r="S39">
         <v>10.3</v>
-      </c>
-      <c r="R39">
-        <v>-0.23</v>
-      </c>
-      <c r="S39">
-        <v>-0.23</v>
       </c>
       <c r="T39">
         <v>-0.23</v>
@@ -6290,43 +6530,49 @@
       <c r="U39">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" t="s">
-        <v>121</v>
+      <c r="V39">
+        <v>-0.23</v>
+      </c>
+      <c r="W39">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>2023</v>
       </c>
       <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40">
         <v>0.88</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>0.88</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>0.14</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>0.03</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>0.2</v>
-      </c>
-      <c r="G40">
-        <v>-0.25</v>
-      </c>
-      <c r="H40">
-        <v>0.082</v>
       </c>
       <c r="I40">
         <v>-0.25</v>
       </c>
       <c r="J40">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>-0.25</v>
       </c>
       <c r="L40">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>-0.25</v>
@@ -6338,16 +6584,16 @@
         <v>-0.25</v>
       </c>
       <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>-0.25</v>
-      </c>
-      <c r="Q40">
-        <v>10.3</v>
       </c>
       <c r="R40">
         <v>-0.25</v>
       </c>
       <c r="S40">
-        <v>-0.25</v>
+        <v>10.3</v>
       </c>
       <c r="T40">
         <v>-0.25</v>
@@ -6355,31 +6601,37 @@
       <c r="U40">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" t="s">
-        <v>122</v>
+      <c r="V40">
+        <v>-0.25</v>
+      </c>
+      <c r="W40">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>2023</v>
       </c>
       <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
         <v>0.11</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>0.11</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>0.13</v>
       </c>
-      <c r="E41">
-        <v>0.01</v>
-      </c>
-      <c r="F41">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0.19</v>
-      </c>
-      <c r="G41">
-        <v>-0.22</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
       </c>
       <c r="I41">
         <v>-0.22</v>
@@ -6403,16 +6655,16 @@
         <v>-0.22</v>
       </c>
       <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>-0.22</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
+        <v>-0.22</v>
+      </c>
+      <c r="S41">
         <v>10.3</v>
-      </c>
-      <c r="R41">
-        <v>-0.21</v>
-      </c>
-      <c r="S41">
-        <v>-0.21</v>
       </c>
       <c r="T41">
         <v>-0.21</v>
@@ -6420,31 +6672,37 @@
       <c r="U41">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" t="s">
-        <v>123</v>
+      <c r="V41">
+        <v>-0.21</v>
+      </c>
+      <c r="W41">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>2023</v>
       </c>
       <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42">
         <v>0.3</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>0.3</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>0.13</v>
       </c>
-      <c r="E42">
-        <v>0.013</v>
-      </c>
-      <c r="F42">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>0.16</v>
-      </c>
-      <c r="G42">
-        <v>-0.26</v>
-      </c>
-      <c r="H42">
-        <v>0.45</v>
       </c>
       <c r="I42">
         <v>-0.26</v>
@@ -6468,16 +6726,16 @@
         <v>-0.26</v>
       </c>
       <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>-0.26</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
+        <v>-0.26</v>
+      </c>
+      <c r="S42">
         <v>10.3</v>
-      </c>
-      <c r="R42">
-        <v>-0.25</v>
-      </c>
-      <c r="S42">
-        <v>-0.25</v>
       </c>
       <c r="T42">
         <v>-0.25</v>
@@ -6485,31 +6743,37 @@
       <c r="U42">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" t="s">
-        <v>124</v>
+      <c r="V42">
+        <v>-0.25</v>
+      </c>
+      <c r="W42">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>2023</v>
       </c>
       <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43">
         <v>0.3</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>0.3</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>0.13</v>
       </c>
-      <c r="E43">
-        <v>0.012</v>
-      </c>
-      <c r="F43">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>0.14</v>
-      </c>
-      <c r="G43">
-        <v>-0.17</v>
-      </c>
-      <c r="H43">
-        <v>0.01</v>
       </c>
       <c r="I43">
         <v>-0.17</v>
@@ -6533,16 +6797,16 @@
         <v>-0.17</v>
       </c>
       <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>-0.17</v>
-      </c>
-      <c r="Q43">
-        <v>10.3</v>
       </c>
       <c r="R43">
         <v>-0.17</v>
       </c>
       <c r="S43">
-        <v>-0.17</v>
+        <v>10.3</v>
       </c>
       <c r="T43">
         <v>-0.17</v>
@@ -6550,43 +6814,49 @@
       <c r="U43">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" t="s">
-        <v>125</v>
+      <c r="V43">
+        <v>-0.17</v>
+      </c>
+      <c r="W43">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>2024</v>
       </c>
       <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44">
         <v>0.68</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>0.68</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>0.15</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>0.02</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>0.32</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>-0.47</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>0.01</v>
-      </c>
-      <c r="I44">
-        <v>-0.46</v>
-      </c>
-      <c r="J44">
-        <v>0.034</v>
       </c>
       <c r="K44">
         <v>-0.46</v>
       </c>
       <c r="L44">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>-0.46</v>
@@ -6598,16 +6868,16 @@
         <v>-0.46</v>
       </c>
       <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>-0.46</v>
-      </c>
-      <c r="Q44">
-        <v>10.3</v>
       </c>
       <c r="R44">
         <v>-0.46</v>
       </c>
       <c r="S44">
-        <v>-0.46</v>
+        <v>10.3</v>
       </c>
       <c r="T44">
         <v>-0.46</v>
@@ -6615,31 +6885,37 @@
       <c r="U44">
         <v>-0.46</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" t="s">
-        <v>126</v>
+      <c r="V44">
+        <v>-0.46</v>
+      </c>
+      <c r="W44">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>2024</v>
       </c>
       <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45">
         <v>0.27</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>0.27</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>0.12</v>
       </c>
-      <c r="E45">
-        <v>0.01</v>
-      </c>
-      <c r="F45">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>0.16</v>
-      </c>
-      <c r="G45">
-        <v>-0.25</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
       </c>
       <c r="I45">
         <v>-0.25</v>
@@ -6663,16 +6939,16 @@
         <v>-0.25</v>
       </c>
       <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>-0.25</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
+        <v>-0.25</v>
+      </c>
+      <c r="S45">
         <v>10.3</v>
-      </c>
-      <c r="R45">
-        <v>-0.24</v>
-      </c>
-      <c r="S45">
-        <v>-0.24</v>
       </c>
       <c r="T45">
         <v>-0.24</v>
@@ -6680,37 +6956,43 @@
       <c r="U45">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" t="s">
-        <v>127</v>
+      <c r="V45">
+        <v>-0.24</v>
+      </c>
+      <c r="W45">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>2024</v>
       </c>
       <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46">
         <v>0.3</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>0.3</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>0.1</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>0.01</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>0.66</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>-0.75</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>0.79</v>
-      </c>
-      <c r="I46">
-        <v>0.03</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
       </c>
       <c r="K46">
         <v>0.03</v>
@@ -6728,21 +7010,27 @@
         <v>0.03</v>
       </c>
       <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>0.03</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
+        <v>0.03</v>
+      </c>
+      <c r="S46">
         <v>34.42</v>
-      </c>
-      <c r="R46">
-        <v>0.02</v>
-      </c>
-      <c r="S46">
-        <v>0.02</v>
       </c>
       <c r="T46">
         <v>0.02</v>
       </c>
       <c r="U46">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0.02</v>
+      </c>
+      <c r="W46">
         <v>0.02</v>
       </c>
     </row>
@@ -6753,111 +7041,114 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>2004</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>6.41</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-2.48</v>
-      </c>
-      <c r="E2">
-        <v>-2.52</v>
       </c>
       <c r="F2">
         <v>-2.52</v>
       </c>
       <c r="G2">
+        <v>-2.52</v>
+      </c>
+      <c r="H2">
         <v>-12.66</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-38.69</v>
-      </c>
-      <c r="I2">
-        <v>-39.38</v>
       </c>
       <c r="J2">
         <v>-39.38</v>
       </c>
       <c r="K2">
+        <v>-39.38</v>
+      </c>
+      <c r="L2">
         <v>-195.58</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-28.07</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3.44</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -6865,55 +7156,58 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>4.04</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>-6.59</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2006</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>4.51</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.55</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-2.82</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-2.84</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-2.83</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-12.21</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-62.63</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-62.96</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-62.92</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>-65.28</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-1.28</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -6921,55 +7215,58 @@
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>7.12</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-17.15</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2007</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>6.79</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.23</v>
-      </c>
-      <c r="D4">
-        <v>-1.08</v>
       </c>
       <c r="E4">
         <v>-1.08</v>
       </c>
       <c r="F4">
+        <v>-1.08</v>
+      </c>
+      <c r="G4">
         <v>-1.09</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-3.45</v>
-      </c>
-      <c r="H4">
-        <v>-15.96</v>
       </c>
       <c r="I4">
         <v>-15.96</v>
       </c>
       <c r="J4">
+        <v>-15.96</v>
+      </c>
+      <c r="K4">
         <v>-16.1</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>-57.07</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-1.27</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
@@ -6977,55 +7274,58 @@
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>7.31</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-41.22</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>2008</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>1.4</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.5</v>
-      </c>
-      <c r="D5">
-        <v>-0.67</v>
       </c>
       <c r="E5">
         <v>-0.67</v>
       </c>
       <c r="F5">
+        <v>-0.67</v>
+      </c>
+      <c r="G5">
         <v>-0.68</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-35.49</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-47.4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-47.48</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-48.17</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>-37.37</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-1.22</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
@@ -7033,55 +7333,58 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>11.17</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-29.69</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>2009</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.67</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.61</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.72</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.73</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.74</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-91.2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-108.4</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-108.61</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-110.15</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>-45.22</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-1.16</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
@@ -7089,55 +7392,58 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>11.48</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-24.97</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>2010</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0.48</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.4</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.49</v>
-      </c>
-      <c r="E7">
-        <v>-0.5</v>
       </c>
       <c r="F7">
         <v>-0.5</v>
       </c>
       <c r="G7">
+        <v>-0.5</v>
+      </c>
+      <c r="H7">
         <v>-82.25</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-102</v>
-      </c>
-      <c r="I7">
-        <v>-102.42</v>
       </c>
       <c r="J7">
         <v>-102.42</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-102.42</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>-31.91</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-1.15</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -7145,24 +7451,27 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>9.890000000000001</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>-32.9</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>2011</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>1.7</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.13</v>
-      </c>
-      <c r="D8">
-        <v>0.04</v>
       </c>
       <c r="E8">
         <v>0.04</v>
@@ -7171,10 +7480,10 @@
         <v>0.04</v>
       </c>
       <c r="G8">
+        <v>0.04</v>
+      </c>
+      <c r="H8">
         <v>7.47</v>
-      </c>
-      <c r="H8">
-        <v>2.26</v>
       </c>
       <c r="I8">
         <v>2.26</v>
@@ -7183,42 +7492,45 @@
         <v>2.26</v>
       </c>
       <c r="K8">
+        <v>2.26</v>
+      </c>
+      <c r="L8">
         <v>-0.51</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-1.28</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>100</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>10</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>104.13</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>2012</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>5.94</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-1.43</v>
-      </c>
-      <c r="D9">
-        <v>-1.53</v>
       </c>
       <c r="E9">
         <v>-1.53</v>
@@ -7227,10 +7539,10 @@
         <v>-1.53</v>
       </c>
       <c r="G9">
+        <v>-1.53</v>
+      </c>
+      <c r="H9">
         <v>-24.03</v>
-      </c>
-      <c r="H9">
-        <v>-25.68</v>
       </c>
       <c r="I9">
         <v>-25.68</v>
@@ -7239,17 +7551,17 @@
         <v>-25.68</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-25.68</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>-28.44</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-1.34</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -7257,24 +7569,27 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>14.26</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-13.25</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>2013</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>2.95</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-2.95</v>
-      </c>
-      <c r="D10">
-        <v>-3.04</v>
       </c>
       <c r="E10">
         <v>-3.04</v>
@@ -7283,10 +7598,10 @@
         <v>-3.04</v>
       </c>
       <c r="G10">
+        <v>-3.04</v>
+      </c>
+      <c r="H10">
         <v>-99.98</v>
-      </c>
-      <c r="H10">
-        <v>-103.03</v>
       </c>
       <c r="I10">
         <v>-103.03</v>
@@ -7295,17 +7610,17 @@
         <v>-103.03</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-103.03</v>
       </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>-62.72</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-1.42</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -7313,111 +7628,117 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>13.8</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-4.55</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>2014</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0.82</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-1.05</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-1.09</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3.37</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2.94</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-127.93</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-132.49</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>408.9</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>356.93</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-73.72</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>31.13</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-3.17</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>100</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>19.6</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-18.05</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>2015</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1.03</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.41</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.44</v>
-      </c>
-      <c r="E12">
-        <v>-0.51</v>
       </c>
       <c r="F12">
         <v>-0.51</v>
       </c>
       <c r="G12">
+        <v>-0.51</v>
+      </c>
+      <c r="H12">
         <v>-39.36</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-42.3</v>
-      </c>
-      <c r="I12">
-        <v>-49.2</v>
       </c>
       <c r="J12">
         <v>-49.2</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-49.2</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>-5.4</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-3</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -7425,55 +7746,58 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>19.08</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-45.74</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>2016</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>0.98</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.38</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.41</v>
-      </c>
-      <c r="E13">
-        <v>-0.43</v>
       </c>
       <c r="F13">
         <v>-0.43</v>
       </c>
       <c r="G13">
+        <v>-0.43</v>
+      </c>
+      <c r="H13">
         <v>-38.52</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-41.95</v>
-      </c>
-      <c r="I13">
-        <v>-44.02</v>
       </c>
       <c r="J13">
         <v>-44.02</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-44.02</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>-4.64</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-2.75</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
@@ -7481,55 +7805,58 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>18.87</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-48.6</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>2017</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>1.07</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.67</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.7</v>
-      </c>
-      <c r="E14">
-        <v>-0.75</v>
       </c>
       <c r="F14">
         <v>-0.75</v>
       </c>
       <c r="G14">
+        <v>-0.75</v>
+      </c>
+      <c r="H14">
         <v>-62.09</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-65.42</v>
-      </c>
-      <c r="I14">
-        <v>-69.88</v>
       </c>
       <c r="J14">
         <v>-69.88</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-69.88</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>-8.529999999999999</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-2.48</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -7537,24 +7864,27 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>15.78</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-22.97</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>26</v>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>2018</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.98</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.45</v>
-      </c>
-      <c r="D15">
-        <v>-0.47</v>
       </c>
       <c r="E15">
         <v>-0.47</v>
@@ -7563,10 +7893,10 @@
         <v>-0.47</v>
       </c>
       <c r="G15">
+        <v>-0.47</v>
+      </c>
+      <c r="H15">
         <v>-45.52</v>
-      </c>
-      <c r="H15">
-        <v>-47.43</v>
       </c>
       <c r="I15">
         <v>-47.43</v>
@@ -7575,17 +7905,17 @@
         <v>-47.43</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>-47.43</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>-4.37</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-2.6</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>0</v>
       </c>
@@ -7593,24 +7923,27 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>18.44</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-39.94</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>27</v>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>2019</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>1.03</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-1.18</v>
-      </c>
-      <c r="D16">
-        <v>-1.2</v>
       </c>
       <c r="E16">
         <v>-1.2</v>
@@ -7619,10 +7952,10 @@
         <v>-1.2</v>
       </c>
       <c r="G16">
+        <v>-1.2</v>
+      </c>
+      <c r="H16">
         <v>-114.74</v>
-      </c>
-      <c r="H16">
-        <v>-116.71</v>
       </c>
       <c r="I16">
         <v>-116.71</v>
@@ -7631,17 +7964,17 @@
         <v>-116.71</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-116.71</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>-11.27</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-2.35</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
         <v>0</v>
       </c>
@@ -7649,55 +7982,58 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>19.8</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-16.29</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>28</v>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>2020</v>
       </c>
       <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.88</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.33</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.53</v>
-      </c>
-      <c r="E17">
-        <v>-0.59</v>
       </c>
       <c r="F17">
         <v>-0.59</v>
       </c>
       <c r="G17">
+        <v>-0.59</v>
+      </c>
+      <c r="H17">
         <v>-37.08</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-59.87</v>
-      </c>
-      <c r="I17">
-        <v>-66.90000000000001</v>
       </c>
       <c r="J17">
         <v>-66.90000000000001</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-66.90000000000001</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>-5.23</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-2.28</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
         <v>0</v>
       </c>
@@ -7705,55 +8041,58 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>20.31</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-60.41</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>29</v>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>2021</v>
       </c>
       <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>1.28</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.34</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.49</v>
-      </c>
-      <c r="E18">
-        <v>-0.54</v>
       </c>
       <c r="F18">
         <v>-0.54</v>
       </c>
       <c r="G18">
+        <v>-0.54</v>
+      </c>
+      <c r="H18">
         <v>-26.29</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-38.42</v>
-      </c>
-      <c r="I18">
-        <v>-42.25</v>
       </c>
       <c r="J18">
         <v>-42.25</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-42.25</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>-4.71</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-2.22</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
         <v>0</v>
       </c>
@@ -7761,24 +8100,27 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>20.92</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-60.59</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>30</v>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>2022</v>
       </c>
       <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>1.16</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.49</v>
-      </c>
-      <c r="D19">
-        <v>-0.5</v>
       </c>
       <c r="E19">
         <v>-0.5</v>
@@ -7787,10 +8129,10 @@
         <v>-0.5</v>
       </c>
       <c r="G19">
+        <v>-0.5</v>
+      </c>
+      <c r="H19">
         <v>-41.91</v>
-      </c>
-      <c r="H19">
-        <v>-43.22</v>
       </c>
       <c r="I19">
         <v>-43.22</v>
@@ -7799,17 +8141,17 @@
         <v>-43.22</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-43.22</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>-4.14</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-2.17</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
       <c r="O19">
         <v>0</v>
       </c>
@@ -7817,24 +8159,27 @@
         <v>0</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>24.13</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-48.21</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>31</v>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>2023</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>1.17</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.87</v>
-      </c>
-      <c r="D20">
-        <v>-0.89</v>
       </c>
       <c r="E20">
         <v>-0.89</v>
@@ -7843,10 +8188,10 @@
         <v>-0.89</v>
       </c>
       <c r="G20">
+        <v>-0.89</v>
+      </c>
+      <c r="H20">
         <v>-74.22</v>
-      </c>
-      <c r="H20">
-        <v>-76.58</v>
       </c>
       <c r="I20">
         <v>-76.58</v>
@@ -7855,17 +8200,17 @@
         <v>-76.58</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-76.58</v>
       </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>-7.6</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-2.08</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
       <c r="O20">
         <v>0</v>
       </c>
@@ -7873,24 +8218,27 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>24.51</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-27.49</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>32</v>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>2024</v>
       </c>
       <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>1.35</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-1.06</v>
-      </c>
-      <c r="D21">
-        <v>-1.08</v>
       </c>
       <c r="E21">
         <v>-1.08</v>
@@ -7899,10 +8247,10 @@
         <v>-1.08</v>
       </c>
       <c r="G21">
+        <v>-1.08</v>
+      </c>
+      <c r="H21">
         <v>-79.02</v>
-      </c>
-      <c r="H21">
-        <v>-80.15000000000001</v>
       </c>
       <c r="I21">
         <v>-80.15000000000001</v>
@@ -7911,17 +8259,17 @@
         <v>-80.15000000000001</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-80.15000000000001</v>
       </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>-9.68</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-1.94</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
         <v>0</v>
       </c>
@@ -7929,9 +8277,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>26.9</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-24.54</v>
       </c>
     </row>
